--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution-died.xlsx
+++ b/data/age-distribution-died.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
